--- a/src/DiscreteEvent.xlsx
+++ b/src/DiscreteEvent.xlsx
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" cm="1">
-        <f t="array" ref="B1">[3]!syClock(50,60)</f>
+        <f t="array" ref="B1">syClock(50,60)</f>
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" cm="1">
-        <f t="array" ref="B3">[3]!syScheduler(1/5,3,B1)</f>
+        <f t="array" ref="B3">syScheduler(1/5,3,B1)</f>
         <v>0</v>
       </c>
     </row>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" cm="1">
-        <f t="array" ref="B4">[3]!syQueue(B3,5,B1,1,,1)</f>
+        <f t="array" ref="B4">syQueue(B3,5,B1,1,,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" cm="1">
-        <f t="array" ref="B5">[3]!syQueueOutput(B4,3)</f>
+        <f t="array" ref="B5">syQueueOutput(B4,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str" cm="1">
-        <f t="array" ref="A7">[3]!syOutcome(B5,B1,5,,1)</f>
+        <f t="array" ref="A7">syOutcome(B5,B1,5,,1)</f>
         <v>{{B5}}</v>
       </c>
     </row>
